--- a/Output/Result.xlsx
+++ b/Output/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Roll No</t>
   </si>
@@ -82,10 +82,7 @@
     <t>?.3</t>
   </si>
   <si>
-    <t>1 11610195</t>
-  </si>
-  <si>
-    <t>11610196</t>
+    <t>1161Oi96'</t>
   </si>
   <si>
     <t>11610197</t>
@@ -94,112 +91,103 @@
     <t>11610198</t>
   </si>
   <si>
-    <t>11610199}</t>
-  </si>
-  <si>
-    <t>11610560 \</t>
-  </si>
-  <si>
-    <t>11610202</t>
-  </si>
-  <si>
-    <t>11616203</t>
-  </si>
-  <si>
-    <t>11610204</t>
-  </si>
-  <si>
-    <t>1161oéb5</t>
-  </si>
-  <si>
-    <t>11610wa</t>
-  </si>
-  <si>
-    <t>11610209</t>
-  </si>
-  <si>
-    <t>11610510</t>
-  </si>
-  <si>
-    <t>1161057</t>
-  </si>
-  <si>
-    <t>11610463</t>
-  </si>
-  <si>
-    <t>11610627</t>
-  </si>
-  <si>
-    <t>11620017</t>
-  </si>
-  <si>
-    <t>[’1 {626% 7</t>
-  </si>
-  <si>
-    <t>11620019</t>
-  </si>
-  <si>
-    <t>HARSH ITA AGGARWAL</t>
-  </si>
-  <si>
-    <t>AKSHAT CHHABRA</t>
-  </si>
-  <si>
-    <t>MUDIT JAIN</t>
-  </si>
-  <si>
-    <t>NITIN RATHEE ‘</t>
-  </si>
-  <si>
-    <t>ADIﬁJAIN '</t>
-  </si>
-  <si>
-    <t>ABHINAVVMVITTALir 7</t>
-  </si>
-  <si>
-    <t>SHIVANI</t>
-  </si>
-  <si>
-    <t>SAﬁQAM sooo</t>
-  </si>
-  <si>
-    <t>RAHDL'KXNDPAL 7</t>
-  </si>
-  <si>
-    <t>SHUBHAM</t>
-  </si>
-  <si>
-    <t>FRETHNA MUDaL '</t>
-  </si>
-  <si>
-    <t>ASHOK AERAWAL 7</t>
-  </si>
-  <si>
-    <t>RAJKUMKFFMEEW'</t>
-  </si>
-  <si>
-    <t>NAWOT SWGH’DHILLON</t>
-  </si>
-  <si>
-    <t>VIVEK NEHRA</t>
-  </si>
-  <si>
-    <t>ASHISH ' ' 7</t>
-  </si>
-  <si>
-    <t>ATISHAY JNN '7 7 '7</t>
-  </si>
-  <si>
-    <t>[YASH SONKER</t>
-  </si>
-  <si>
-    <t>ROHAN KAPOOR</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>W</t>
+    <t>1 161 di’éév \</t>
+  </si>
+  <si>
+    <t>11610261)</t>
+  </si>
+  <si>
+    <t>11616265. '1</t>
+  </si>
+  <si>
+    <t>11610563 3</t>
+  </si>
+  <si>
+    <t>I 11610204</t>
+  </si>
+  <si>
+    <t>| 1'1610E65 '</t>
+  </si>
+  <si>
+    <t>| 11610506</t>
+  </si>
+  <si>
+    <t>1 11610209</t>
+  </si>
+  <si>
+    <t>I 1161072771707</t>
+  </si>
+  <si>
+    <t>I 11610407</t>
+  </si>
+  <si>
+    <t>I 11610463</t>
+  </si>
+  <si>
+    <t>I 11610627</t>
+  </si>
+  <si>
+    <t>1y1f620017‘</t>
+  </si>
+  <si>
+    <t>[116200181</t>
+  </si>
+  <si>
+    <t>[11520019j</t>
+  </si>
+  <si>
+    <t>AksHAT CH'HABRA</t>
+  </si>
+  <si>
+    <t>MUEifJAiN</t>
+  </si>
+  <si>
+    <t>'NiTIN RATHEE</t>
+  </si>
+  <si>
+    <t>'AbITI JAIN</t>
+  </si>
+  <si>
+    <t>AEQINAV MITTAL</t>
+  </si>
+  <si>
+    <t>I'VSVHIVANI ,</t>
+  </si>
+  <si>
+    <t>SANYAM SOOD</t>
+  </si>
+  <si>
+    <t>RAHUEKANDEKL</t>
+  </si>
+  <si>
+    <t>[éHUBHAM</t>
+  </si>
+  <si>
+    <t>PﬁAiﬁﬁNA MUDGAL</t>
+  </si>
+  <si>
+    <t>ASHOK AéRAW/{T</t>
+  </si>
+  <si>
+    <t>RAJKUM’AR MEENA</t>
+  </si>
+  <si>
+    <t>NAQJ’OT’ SlﬁéR’DHILLEN</t>
+  </si>
+  <si>
+    <t>Vlv'ék’NEHﬁAw</t>
+  </si>
+  <si>
+    <t>ASHISH V</t>
+  </si>
+  <si>
+    <t>Aﬁs’ﬁAWAIN</t>
+  </si>
+  <si>
+    <t>YAT'Siii-EékiiNREﬁ"</t>
+  </si>
+  <si>
+    <t>RESEAN’kAiabbR , ; ‘ '</t>
   </si>
 </sst>
 </file>
@@ -557,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,45 +624,36 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>9</v>
-      </c>
-      <c r="P2">
         <v>0</v>
       </c>
     </row>
@@ -683,46 +662,37 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -730,46 +700,43 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -777,46 +744,40 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -824,49 +785,37 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6">
         <v>6</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -874,46 +823,40 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
         <v>7</v>
       </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
       <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -921,46 +864,37 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8">
         <v>6</v>
       </c>
       <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -968,46 +902,37 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>9</v>
-      </c>
-      <c r="L9">
-        <v>7</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1015,45 +940,36 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>8</v>
-      </c>
-      <c r="P10">
         <v>8</v>
       </c>
     </row>
@@ -1062,46 +978,37 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>9</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>9</v>
-      </c>
-      <c r="P11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1109,7 +1016,37 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1117,7 +1054,37 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1125,7 +1092,37 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1133,7 +1130,37 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1141,39 +1168,151 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Result.xlsx
+++ b/Output/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
   <si>
     <t>Roll No</t>
   </si>
@@ -67,20 +67,17 @@
     <t>0</t>
   </si>
   <si>
-    <t>11a1n4np</t>
-  </si>
-  <si>
-    <t>PH
-4464n4n-v</t>
-  </si>
-  <si>
-    <t>I IOIUI3I</t>
-  </si>
-  <si>
-    <t>’Hb'IU'ISB</t>
-  </si>
-  <si>
-    <t>1 11610199</t>
+    <t>w
+4104AAA—</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>11610198</t>
+  </si>
+  <si>
+    <t>11610199</t>
   </si>
   <si>
     <t>11610200</t>
@@ -95,10 +92,10 @@
     <t>11610204</t>
   </si>
   <si>
-    <t>i116102§</t>
-  </si>
-  <si>
-    <t>I 11610206</t>
+    <t>11610205</t>
+  </si>
+  <si>
+    <t>11610206</t>
   </si>
   <si>
     <t>11610209</t>
@@ -107,28 +104,28 @@
     <t>11610210</t>
   </si>
   <si>
-    <t>I 11610407</t>
+    <t>11610407</t>
   </si>
   <si>
     <t>11610463</t>
   </si>
   <si>
-    <t>11610627‘</t>
-  </si>
-  <si>
-    <t>11620017</t>
-  </si>
-  <si>
-    <t>‘ 11620018</t>
+    <t>‘ 11610627 \</t>
+  </si>
+  <si>
+    <t>‘ 11620017</t>
+  </si>
+  <si>
+    <t>11620018</t>
   </si>
   <si>
     <t>11620019</t>
   </si>
   <si>
-    <t>HHKDHI IA AGGARWAL</t>
-  </si>
-  <si>
-    <t>A KbHA ICHHABRA</t>
+    <t>III-\KDI‘II IA AGGARWAL</t>
+  </si>
+  <si>
+    <t>HRéHAI CHHABRA</t>
   </si>
   <si>
     <t>MUDIT JAIN</t>
@@ -137,31 +134,31 @@
     <t>NITIN RATHEE</t>
   </si>
   <si>
-    <t>ADITI JAIN i</t>
-  </si>
-  <si>
-    <t>ABHINAV MITTAL 7</t>
-  </si>
-  <si>
-    <t>SHIVANI</t>
-  </si>
-  <si>
-    <t>SANYAM soon '</t>
+    <t>ADITI JAIN</t>
+  </si>
+  <si>
+    <t>ABHINAV MITTAL</t>
+  </si>
+  <si>
+    <t>SHIVAN! ,</t>
+  </si>
+  <si>
+    <t>SANYAM soon if 7</t>
   </si>
   <si>
     <t>RAHUL KANDPAL</t>
   </si>
   <si>
-    <t>JSHUBHAM</t>
-  </si>
-  <si>
-    <t>PRAleiNA MUDGAg</t>
+    <t>SHUBHAM '</t>
+  </si>
+  <si>
+    <t>PRARTﬂNA MUDGAL ,</t>
   </si>
   <si>
     <t>ASHOK AGRAWAL</t>
   </si>
   <si>
-    <t>RAJKUMAR MEENA</t>
+    <t>RAJ KU MAR MEENA</t>
   </si>
   <si>
     <t>NAVJOT SINGH DHILLON</t>
@@ -170,19 +167,25 @@
     <t>VIVEK NEHRA</t>
   </si>
   <si>
-    <t>ASHISH</t>
-  </si>
-  <si>
-    <t>ATlSHAY JAIN</t>
-  </si>
-  <si>
-    <t>‘YASH SONKER</t>
+    <t>ASHISH ‘</t>
+  </si>
+  <si>
+    <t>‘ATISHAY JAIN</t>
+  </si>
+  <si>
+    <t>YASH SONKER</t>
   </si>
   <si>
     <t>ROHAN KAPOOR</t>
   </si>
   <si>
-    <t>I?</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
+    <t>57.14%</t>
   </si>
   <si>
     <t>64.29%</t>
@@ -191,13 +194,13 @@
     <t>71.43%</t>
   </si>
   <si>
-    <t>0.0%</t>
+    <t>7.14%</t>
   </si>
   <si>
     <t>78.57%</t>
   </si>
   <si>
-    <t>42.86%</t>
+    <t>85.71%</t>
   </si>
 </sst>
 </file>
@@ -616,16 +619,16 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -645,23 +648,23 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="M2" t="s">
+        <v>2</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2">
-        <v>1</v>
+      <c r="O2" t="s">
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
         <v>16</v>
@@ -669,16 +672,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -698,23 +701,23 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>2</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="M3" t="s">
+        <v>16</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>1</v>
+      <c r="O3" t="s">
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
         <v>16</v>
@@ -722,16 +725,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -751,23 +754,23 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="s">
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>1</v>
+      <c r="M4" t="s">
+        <v>16</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q4" t="s">
         <v>16</v>
@@ -775,52 +778,52 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>55</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="s">
         <v>16</v>
@@ -828,16 +831,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,40 +860,40 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>16</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
+      <c r="M6" t="s">
+        <v>16</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="O6" t="s">
+        <v>16</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -910,23 +913,23 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>16</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>1</v>
+      <c r="M7" t="s">
+        <v>2</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7">
-        <v>1</v>
+      <c r="O7" t="s">
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="s">
         <v>16</v>
@@ -934,16 +937,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -961,25 +964,25 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="M8" t="s">
+        <v>2</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8">
-        <v>0</v>
+      <c r="O8" t="s">
+        <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" t="s">
         <v>16</v>
@@ -987,16 +990,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1016,23 +1019,23 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="M9" t="s">
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>1</v>
+      <c r="O9" t="s">
+        <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" t="s">
         <v>16</v>
@@ -1040,16 +1043,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1069,23 +1072,23 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="M10" t="s">
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q10" t="s">
         <v>16</v>
@@ -1093,69 +1096,69 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="M11" t="s">
+        <v>2</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11">
-        <v>0</v>
+      <c r="O11" t="s">
+        <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1175,40 +1178,40 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="M12" t="s">
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="Q12" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>2</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1228,40 +1231,40 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="M13" t="s">
+        <v>2</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13">
-        <v>1</v>
+      <c r="O13" t="s">
+        <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>2</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1281,23 +1284,23 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>54</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="M14" t="s">
+        <v>2</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14">
-        <v>0</v>
+      <c r="O14" t="s">
+        <v>16</v>
       </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q14" t="s">
         <v>16</v>
@@ -1305,16 +1308,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1334,23 +1337,23 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15">
-        <v>1</v>
+      <c r="K15" t="s">
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="M15" t="s">
+        <v>2</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>1</v>
+      <c r="O15" t="s">
+        <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" t="s">
         <v>16</v>
@@ -1358,16 +1361,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>2</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1387,23 +1390,23 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16">
-        <v>0</v>
+      <c r="K16" t="s">
+        <v>16</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16">
-        <v>1</v>
+      <c r="M16" t="s">
+        <v>2</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16">
-        <v>1</v>
+      <c r="O16" t="s">
+        <v>57</v>
       </c>
       <c r="P16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="Q16" t="s">
         <v>16</v>
@@ -1411,16 +1414,16 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>2</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1440,23 +1443,23 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17">
-        <v>1</v>
+      <c r="K17" t="s">
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>1</v>
+      <c r="M17" t="s">
+        <v>2</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17">
-        <v>0</v>
+      <c r="O17" t="s">
+        <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q17" t="s">
         <v>16</v>
@@ -1464,16 +1467,16 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>2</v>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1493,40 +1496,40 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18">
-        <v>0</v>
+      <c r="K18" t="s">
+        <v>2</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>1</v>
+      <c r="M18" t="s">
+        <v>16</v>
       </c>
       <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="Q18" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>2</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1546,20 +1549,20 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19">
-        <v>1</v>
+      <c r="K19" t="s">
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19">
-        <v>1</v>
+      <c r="M19" t="s">
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>1</v>
+      <c r="O19" t="s">
+        <v>16</v>
       </c>
       <c r="P19" t="s">
         <v>57</v>
@@ -1570,16 +1573,16 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>2</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1599,23 +1602,23 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>16</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q20" t="s">
         <v>16</v>

--- a/Output/Result.xlsx
+++ b/Output/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>Roll No</t>
   </si>
@@ -64,143 +64,139 @@
     <t>Total Attendance</t>
   </si>
   <si>
+    <t>I 11610195</t>
+  </si>
+  <si>
+    <t>I 11610196</t>
+  </si>
+  <si>
+    <t>I 11610197</t>
+  </si>
+  <si>
+    <t>I 11610156</t>
+  </si>
+  <si>
+    <t>I 11610199</t>
+  </si>
+  <si>
+    <t>[ 11610200</t>
+  </si>
+  <si>
+    <t>1 11610202</t>
+  </si>
+  <si>
+    <t>I 11610203</t>
+  </si>
+  <si>
+    <t>11610204</t>
+  </si>
+  <si>
+    <t>l 11610205</t>
+  </si>
+  <si>
+    <t>11610206</t>
+  </si>
+  <si>
+    <t>1 11610209</t>
+  </si>
+  <si>
+    <t>11610210</t>
+  </si>
+  <si>
+    <t>1 11610407</t>
+  </si>
+  <si>
+    <t>11610453</t>
+  </si>
+  <si>
+    <t>11610627</t>
+  </si>
+  <si>
+    <t>11620017 {</t>
+  </si>
+  <si>
+    <t>11620018</t>
+  </si>
+  <si>
+    <t>11620019</t>
+  </si>
+  <si>
+    <t>HARSH ITA AGEARWAL ,</t>
+  </si>
+  <si>
+    <t>AKSHAT CHHABRA</t>
+  </si>
+  <si>
+    <t>IMUDIT JAJNW</t>
+  </si>
+  <si>
+    <t>INHIN RATHEE</t>
+  </si>
+  <si>
+    <t>ADITI JAIN</t>
+  </si>
+  <si>
+    <t>AarjlyAv MITTALV</t>
+  </si>
+  <si>
+    <t>SHIVANI 7</t>
+  </si>
+  <si>
+    <t>SANYAM SOOD</t>
+  </si>
+  <si>
+    <t>RAHUL KANDPAL</t>
+  </si>
+  <si>
+    <t>SHUBHAM</t>
+  </si>
+  <si>
+    <t>PRARTHNA MUDGAL</t>
+  </si>
+  <si>
+    <t>ASHOK AGRAWAL</t>
+  </si>
+  <si>
+    <t>RAJKUMAR MEENA</t>
+  </si>
+  <si>
+    <t>NAVJOT SINGH DHILLON</t>
+  </si>
+  <si>
+    <t>VIVEK NEHRA</t>
+  </si>
+  <si>
+    <t>ASHISH</t>
+  </si>
+  <si>
+    <t>ATISHAY JAIN</t>
+  </si>
+  <si>
+    <t>YASH SONKER</t>
+  </si>
+  <si>
+    <t>ROHAN KAPOOR</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>w
-4104AAA—</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>11610198</t>
-  </si>
-  <si>
-    <t>11610199</t>
-  </si>
-  <si>
-    <t>11610200</t>
-  </si>
-  <si>
-    <t>11610202</t>
-  </si>
-  <si>
-    <t>11610203</t>
-  </si>
-  <si>
-    <t>11610204</t>
-  </si>
-  <si>
-    <t>11610205</t>
-  </si>
-  <si>
-    <t>11610206</t>
-  </si>
-  <si>
-    <t>11610209</t>
-  </si>
-  <si>
-    <t>11610210</t>
-  </si>
-  <si>
-    <t>11610407</t>
-  </si>
-  <si>
-    <t>11610463</t>
-  </si>
-  <si>
-    <t>‘ 11610627 \</t>
-  </si>
-  <si>
-    <t>‘ 11620017</t>
-  </si>
-  <si>
-    <t>11620018</t>
-  </si>
-  <si>
-    <t>11620019</t>
-  </si>
-  <si>
-    <t>III-\KDI‘II IA AGGARWAL</t>
-  </si>
-  <si>
-    <t>HRéHAI CHHABRA</t>
-  </si>
-  <si>
-    <t>MUDIT JAIN</t>
-  </si>
-  <si>
-    <t>NITIN RATHEE</t>
-  </si>
-  <si>
-    <t>ADITI JAIN</t>
-  </si>
-  <si>
-    <t>ABHINAV MITTAL</t>
-  </si>
-  <si>
-    <t>SHIVAN! ,</t>
-  </si>
-  <si>
-    <t>SANYAM soon if 7</t>
-  </si>
-  <si>
-    <t>RAHUL KANDPAL</t>
-  </si>
-  <si>
-    <t>SHUBHAM '</t>
-  </si>
-  <si>
-    <t>PRARTﬂNA MUDGAL ,</t>
-  </si>
-  <si>
-    <t>ASHOK AGRAWAL</t>
-  </si>
-  <si>
-    <t>RAJ KU MAR MEENA</t>
-  </si>
-  <si>
-    <t>NAVJOT SINGH DHILLON</t>
-  </si>
-  <si>
-    <t>VIVEK NEHRA</t>
-  </si>
-  <si>
-    <t>ASHISH ‘</t>
-  </si>
-  <si>
-    <t>‘ATISHAY JAIN</t>
-  </si>
-  <si>
-    <t>YASH SONKER</t>
-  </si>
-  <si>
-    <t>ROHAN KAPOOR</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>57.14%</t>
-  </si>
-  <si>
-    <t>64.29%</t>
-  </si>
-  <si>
-    <t>71.43%</t>
-  </si>
-  <si>
-    <t>7.14%</t>
-  </si>
-  <si>
-    <t>78.57%</t>
-  </si>
-  <si>
-    <t>85.71%</t>
+    <t>61.54%</t>
+  </si>
+  <si>
+    <t>76.92%</t>
+  </si>
+  <si>
+    <t>69.23%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>84.62%</t>
   </si>
 </sst>
 </file>
@@ -558,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,13 +609,10 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -648,14 +641,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
+      <c r="K2">
+        <v>0</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -664,13 +657,10 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -701,14 +691,14 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>2</v>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -717,13 +707,10 @@
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -754,29 +741,26 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>2</v>
+      <c r="K4">
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -790,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -807,29 +791,23 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>2</v>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -860,29 +838,26 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>16</v>
+      <c r="K6">
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -913,8 +888,8 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -929,13 +904,10 @@
         <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -952,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -966,8 +938,8 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>2</v>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -976,19 +948,13 @@
         <v>2</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1019,8 +985,8 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>2</v>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1035,13 +1001,10 @@
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1072,8 +1035,8 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
-        <v>2</v>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1088,13 +1051,10 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1111,22 +1071,22 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" t="s">
-        <v>2</v>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1138,16 +1098,13 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="P11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1178,8 +1135,8 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" t="s">
-        <v>2</v>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1194,13 +1151,10 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1231,8 +1185,8 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
-        <v>2</v>
+      <c r="K13">
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1247,13 +1201,10 @@
         <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1284,8 +1235,8 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
-        <v>54</v>
+      <c r="K14">
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1297,16 +1248,13 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P14" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1337,8 +1285,8 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" t="s">
-        <v>2</v>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1353,13 +1301,10 @@
         <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1390,8 +1335,8 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" t="s">
-        <v>16</v>
+      <c r="K16">
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1405,14 +1350,8 @@
       <c r="O16" t="s">
         <v>57</v>
       </c>
-      <c r="P16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1443,8 +1382,8 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" t="s">
-        <v>2</v>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1456,16 +1395,13 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="P17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1496,14 +1432,14 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" t="s">
-        <v>2</v>
+      <c r="K18">
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1512,13 +1448,10 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1549,8 +1482,8 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19" t="s">
-        <v>2</v>
+      <c r="K19">
+        <v>1</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1562,16 +1495,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1602,14 +1532,14 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
-        <v>2</v>
+      <c r="K20">
+        <v>1</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1619,9 +1549,6 @@
       </c>
       <c r="P20" t="s">
         <v>57</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Result.xlsx
+++ b/Output/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Roll No</t>
   </si>
@@ -61,97 +61,95 @@
     <t>13</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Total Attendance</t>
   </si>
   <si>
-    <t>I 11610195</t>
-  </si>
-  <si>
-    <t>I 11610196</t>
-  </si>
-  <si>
-    <t>I 11610197</t>
-  </si>
-  <si>
-    <t>I 11610156</t>
-  </si>
-  <si>
-    <t>I 11610199</t>
-  </si>
-  <si>
-    <t>[ 11610200</t>
-  </si>
-  <si>
-    <t>1 11610202</t>
-  </si>
-  <si>
-    <t>I 11610203</t>
+    <t>PH
+4464n4n-v</t>
+  </si>
+  <si>
+    <t>I IOIUI3I</t>
+  </si>
+  <si>
+    <t>’Hb'IU'ISB</t>
+  </si>
+  <si>
+    <t>1 11610199</t>
+  </si>
+  <si>
+    <t>11610200</t>
+  </si>
+  <si>
+    <t>11610202</t>
+  </si>
+  <si>
+    <t>11610203</t>
   </si>
   <si>
     <t>11610204</t>
   </si>
   <si>
-    <t>l 11610205</t>
-  </si>
-  <si>
-    <t>11610206</t>
-  </si>
-  <si>
-    <t>1 11610209</t>
+    <t>i116102§</t>
+  </si>
+  <si>
+    <t>I 11610206</t>
+  </si>
+  <si>
+    <t>11610209</t>
   </si>
   <si>
     <t>11610210</t>
   </si>
   <si>
-    <t>1 11610407</t>
-  </si>
-  <si>
-    <t>11610453</t>
-  </si>
-  <si>
-    <t>11610627</t>
-  </si>
-  <si>
-    <t>11620017 {</t>
-  </si>
-  <si>
-    <t>11620018</t>
+    <t>I 11610407</t>
+  </si>
+  <si>
+    <t>11610463</t>
+  </si>
+  <si>
+    <t>11610627‘</t>
+  </si>
+  <si>
+    <t>11620017</t>
+  </si>
+  <si>
+    <t>‘ 11620018</t>
   </si>
   <si>
     <t>11620019</t>
   </si>
   <si>
-    <t>HARSH ITA AGEARWAL ,</t>
-  </si>
-  <si>
-    <t>AKSHAT CHHABRA</t>
-  </si>
-  <si>
-    <t>IMUDIT JAJNW</t>
-  </si>
-  <si>
-    <t>INHIN RATHEE</t>
-  </si>
-  <si>
-    <t>ADITI JAIN</t>
-  </si>
-  <si>
-    <t>AarjlyAv MITTALV</t>
-  </si>
-  <si>
-    <t>SHIVANI 7</t>
-  </si>
-  <si>
-    <t>SANYAM SOOD</t>
+    <t>A KbHA ICHHABRA</t>
+  </si>
+  <si>
+    <t>MUDIT JAIN</t>
+  </si>
+  <si>
+    <t>NITIN RATHEE</t>
+  </si>
+  <si>
+    <t>ADITI JAIN i</t>
+  </si>
+  <si>
+    <t>ABHINAV MITTAL 7</t>
+  </si>
+  <si>
+    <t>SHIVANI</t>
+  </si>
+  <si>
+    <t>SANYAM soon '</t>
   </si>
   <si>
     <t>RAHUL KANDPAL</t>
   </si>
   <si>
-    <t>SHUBHAM</t>
-  </si>
-  <si>
-    <t>PRARTHNA MUDGAL</t>
+    <t>JSHUBHAM</t>
+  </si>
+  <si>
+    <t>PRAleiNA MUDGAg</t>
   </si>
   <si>
     <t>ASHOK AGRAWAL</t>
@@ -169,34 +167,37 @@
     <t>ASHISH</t>
   </si>
   <si>
-    <t>ATISHAY JAIN</t>
-  </si>
-  <si>
-    <t>YASH SONKER</t>
+    <t>ATlSHAY JAIN</t>
+  </si>
+  <si>
+    <t>‘YASH SONKER</t>
   </si>
   <si>
     <t>ROHAN KAPOOR</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>61.54%</t>
-  </si>
-  <si>
-    <t>76.92%</t>
-  </si>
-  <si>
-    <t>69.23%</t>
+    <t>I?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>64.29%</t>
+  </si>
+  <si>
+    <t>71.43%</t>
   </si>
   <si>
     <t>0.0%</t>
   </si>
   <si>
-    <t>84.62%</t>
+    <t>78.57%</t>
+  </si>
+  <si>
+    <t>42.86%</t>
   </si>
 </sst>
 </file>
@@ -554,13 +555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,19 +610,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -630,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -639,30 +643,33 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>2</v>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -670,8 +677,8 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>53</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -695,24 +702,27 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -720,8 +730,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>54</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -742,27 +752,30 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>2</v>
+      <c r="M4">
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -770,96 +783,105 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
         <v>55</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -867,8 +889,8 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -886,39 +908,42 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>2</v>
+      <c r="M7">
+        <v>1</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
-        <v>2</v>
+      <c r="O7">
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -927,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -944,34 +969,40 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>2</v>
+      <c r="M8">
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -991,22 +1022,25 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
-        <v>2</v>
+      <c r="M9">
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>55</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -1014,8 +1048,8 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1041,22 +1075,25 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
-        <v>2</v>
+      <c r="M10">
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
       <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
@@ -1064,8 +1101,8 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1091,22 +1128,25 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>2</v>
+      <c r="M11">
+        <v>1</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
-        <v>55</v>
+      <c r="O11">
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -1114,8 +1154,8 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1141,37 +1181,40 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>2</v>
+      <c r="M12">
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>55</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1186,27 +1229,30 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
-        <v>2</v>
+      <c r="M13">
+        <v>1</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
-        <v>2</v>
+      <c r="O13">
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>55</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1214,14 +1260,14 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1241,31 +1287,34 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
-        <v>2</v>
+      <c r="M14">
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
         <v>55</v>
       </c>
-      <c r="P14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1286,27 +1335,30 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
-        <v>2</v>
+      <c r="M15">
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>55</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -1314,8 +1366,8 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1341,34 +1393,40 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16" t="s">
-        <v>2</v>
+      <c r="M16">
+        <v>1</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1383,27 +1441,30 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" t="s">
-        <v>55</v>
+      <c r="O17">
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -1411,8 +1472,8 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="D18" t="s">
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1438,22 +1499,25 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>2</v>
+      <c r="M18">
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18" t="s">
-        <v>2</v>
+      <c r="O18">
+        <v>1</v>
       </c>
       <c r="P18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -1461,8 +1525,8 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1477,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1486,69 +1550,22 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19" t="s">
-        <v>2</v>
+      <c r="O19">
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
